--- a/plots/basic_stats/two_var_stats/allmus_accreditation_vs_governance_simpl.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_accreditation_vs_governance_simpl.xlsx
@@ -391,13 +391,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C2">
-        <v>975</v>
+        <v>999</v>
       </c>
       <c r="D2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C3">
-        <v>1833</v>
+        <v>1993</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
